--- a/resource/Dict/02 Dictionary Farm.xlsx
+++ b/resource/Dict/02 Dictionary Farm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10905" yWindow="-15" windowWidth="10695" windowHeight="10785"/>
+    <workbookView xWindow="2925" yWindow="1230" windowWidth="10695" windowHeight="10785" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="01-Usage" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16398" uniqueCount="7879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16438" uniqueCount="7890">
   <si>
     <t>%</t>
   </si>
@@ -23675,6 +23675,39 @@
   </si>
   <si>
     <t>FLL00648</t>
+  </si>
+  <si>
+    <t>PT000053</t>
+  </si>
+  <si>
+    <t>PT000054</t>
+  </si>
+  <si>
+    <t>PT000055</t>
+  </si>
+  <si>
+    <t>PT000056</t>
+  </si>
+  <si>
+    <t>PT000057</t>
+  </si>
+  <si>
+    <t>PT000058</t>
+  </si>
+  <si>
+    <t>PT000059</t>
+  </si>
+  <si>
+    <t>PT000060</t>
+  </si>
+  <si>
+    <t>PT000061</t>
+  </si>
+  <si>
+    <t>PT000062</t>
+  </si>
+  <si>
+    <t>PT000063</t>
   </si>
 </sst>
 </file>
@@ -25408,7 +25441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -25633,8 +25666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -26040,8 +26073,12 @@
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50"/>
-      <c r="C50"/>
+      <c r="B50" t="s">
+        <v>504</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6335</v>
+      </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51"/>
@@ -39106,7 +39143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B31"/>
     </sheetView>
   </sheetViews>
@@ -39463,10 +39500,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C225"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="E214" sqref="E214"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B205" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -41255,6 +41292,30 @@
         <v>530</v>
       </c>
     </row>
+    <row r="223" spans="2:3">
+      <c r="B223" t="s">
+        <v>504</v>
+      </c>
+      <c r="C223" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3">
+      <c r="B224" t="s">
+        <v>504</v>
+      </c>
+      <c r="C224" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3">
+      <c r="B225" t="s">
+        <v>504</v>
+      </c>
+      <c r="C225" t="s">
+        <v>533</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1"/>
   <dataConsolidate/>
@@ -41266,7 +41327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C649"/>
   <sheetViews>
-    <sheetView topLeftCell="A616" workbookViewId="0">
+    <sheetView topLeftCell="A628" workbookViewId="0">
       <selection activeCell="D653" sqref="D653"/>
     </sheetView>
   </sheetViews>
@@ -46474,10 +46535,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C255"/>
+  <dimension ref="A1:C271"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="B250" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -48539,6 +48600,134 @@
       </c>
       <c r="C255" s="1" t="s">
         <v>613</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="B256" t="s">
+        <v>503</v>
+      </c>
+      <c r="C256" t="s">
+        <v>7879</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="B257" t="s">
+        <v>503</v>
+      </c>
+      <c r="C257" t="s">
+        <v>7880</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3">
+      <c r="B258" t="s">
+        <v>503</v>
+      </c>
+      <c r="C258" t="s">
+        <v>7881</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3">
+      <c r="B259" t="s">
+        <v>504</v>
+      </c>
+      <c r="C259" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3">
+      <c r="B260" t="s">
+        <v>504</v>
+      </c>
+      <c r="C260" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="B261" t="s">
+        <v>504</v>
+      </c>
+      <c r="C261" t="s">
+        <v>7879</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3">
+      <c r="B262" t="s">
+        <v>504</v>
+      </c>
+      <c r="C262" t="s">
+        <v>7880</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="B263" t="s">
+        <v>504</v>
+      </c>
+      <c r="C263" t="s">
+        <v>7881</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3">
+      <c r="B264" t="s">
+        <v>504</v>
+      </c>
+      <c r="C264" t="s">
+        <v>7882</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="B265" t="s">
+        <v>504</v>
+      </c>
+      <c r="C265" t="s">
+        <v>7883</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="B266" t="s">
+        <v>504</v>
+      </c>
+      <c r="C266" t="s">
+        <v>7884</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3">
+      <c r="B267" t="s">
+        <v>504</v>
+      </c>
+      <c r="C267" t="s">
+        <v>7885</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3">
+      <c r="B268" t="s">
+        <v>504</v>
+      </c>
+      <c r="C268" t="s">
+        <v>7886</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3">
+      <c r="B269" t="s">
+        <v>504</v>
+      </c>
+      <c r="C269" t="s">
+        <v>7887</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3">
+      <c r="B270" t="s">
+        <v>504</v>
+      </c>
+      <c r="C270" t="s">
+        <v>7888</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3">
+      <c r="B271" t="s">
+        <v>504</v>
+      </c>
+      <c r="C271" t="s">
+        <v>7889</v>
       </c>
     </row>
   </sheetData>
